--- a/data/BracTestData.xlsx
+++ b/data/BracTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4866" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5366" uniqueCount="453">
   <si>
     <t>Testcasename</t>
   </si>
@@ -556,57 +556,60 @@
     <t>1524201862527001'</t>
   </si>
   <si>
+    <t>150'</t>
+  </si>
+  <si>
+    <t>Monthly Swap</t>
+  </si>
+  <si>
+    <t>Fund Transfer</t>
+  </si>
+  <si>
+    <t>Own Account Beneficiary</t>
+  </si>
+  <si>
+    <t>MOB</t>
+  </si>
+  <si>
+    <t>1520101862752001</t>
+  </si>
+  <si>
+    <t>selectCardno</t>
+  </si>
+  <si>
+    <t>Paymenttype</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>489035XXXXXX3427'</t>
+  </si>
+  <si>
+    <t>Other Amount</t>
+  </si>
+  <si>
+    <t>10'</t>
+  </si>
+  <si>
+    <t>489035XXXXXX3427</t>
+  </si>
+  <si>
+    <t>selectBeneAccno</t>
+  </si>
+  <si>
+    <t>Benetype</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1524201862527001'</t>
+  </si>
+  <si>
     <t>100'</t>
   </si>
   <si>
-    <t>Monthly Swap</t>
-  </si>
-  <si>
-    <t>Fund Transfer</t>
-  </si>
-  <si>
-    <t>Own Account Beneficiary</t>
-  </si>
-  <si>
-    <t>MOB</t>
-  </si>
-  <si>
-    <t>1520101862752001</t>
-  </si>
-  <si>
-    <t>selectCardno</t>
-  </si>
-  <si>
-    <t>Paymenttype</t>
-  </si>
-  <si>
-    <t>TC30</t>
-  </si>
-  <si>
-    <t>489035XXXXXX3427'</t>
-  </si>
-  <si>
-    <t>Other Amount</t>
-  </si>
-  <si>
-    <t>10'</t>
-  </si>
-  <si>
-    <t>489035XXXXXX3427</t>
-  </si>
-  <si>
-    <t>selectBeneAccno</t>
-  </si>
-  <si>
-    <t>Benetype</t>
-  </si>
-  <si>
-    <t>TC31</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1524201862527001'</t>
-  </si>
-  <si>
     <t>testwithin|1501101982660001</t>
   </si>
   <si>
@@ -1325,6 +1328,51 @@
   </si>
   <si>
     <t>Okwallet</t>
+  </si>
+  <si>
+    <t>TC225</t>
+  </si>
+  <si>
+    <t>TC226</t>
+  </si>
+  <si>
+    <t>TC227</t>
+  </si>
+  <si>
+    <t>TC228</t>
+  </si>
+  <si>
+    <t>TC229</t>
+  </si>
+  <si>
+    <t>TC230</t>
+  </si>
+  <si>
+    <t>TC231</t>
+  </si>
+  <si>
+    <t>TC232</t>
+  </si>
+  <si>
+    <t>TC233</t>
+  </si>
+  <si>
+    <t>TC234</t>
+  </si>
+  <si>
+    <t>TC235</t>
+  </si>
+  <si>
+    <t>TC236</t>
+  </si>
+  <si>
+    <t>TC237</t>
+  </si>
+  <si>
+    <t>TC238</t>
+  </si>
+  <si>
+    <t>TC239</t>
   </si>
 </sst>
 </file>
@@ -1332,10 +1380,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1366,8 +1414,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1380,23 +1443,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1405,22 +1454,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1442,14 +1475,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1465,6 +1490,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -1472,8 +1519,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1487,16 +1535,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1523,55 +1571,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,91 +1601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,13 +1625,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1703,7 +1733,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,23 +1809,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1821,11 +1854,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1847,157 +1897,155 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2384,10 +2432,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T535"/>
+  <dimension ref="A1:T580"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D504" workbookViewId="0">
-      <selection activeCell="J535" sqref="J535"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D105" workbookViewId="0">
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6236,19 +6284,19 @@
         <v>196</v>
       </c>
       <c r="J112" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>181</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M112" s="15" t="s">
         <v>182</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>184</v>
@@ -6336,7 +6384,7 @@
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>10</v>
@@ -6363,19 +6411,19 @@
         <v>196</v>
       </c>
       <c r="J115" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>181</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M115" s="15" t="s">
         <v>182</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O115" s="1" t="s">
         <v>184</v>
@@ -6434,7 +6482,7 @@
         <v>170</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>171</v>
@@ -6463,7 +6511,7 @@
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>10</v>
@@ -6490,19 +6538,19 @@
         <v>41</v>
       </c>
       <c r="J118" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>181</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M118" s="15" t="s">
         <v>182</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O118" s="1" t="s">
         <v>184</v>
@@ -6561,7 +6609,7 @@
         <v>170</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>171</v>
@@ -6590,7 +6638,7 @@
     </row>
     <row r="121" spans="1:19">
       <c r="A121" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>10</v>
@@ -6617,19 +6665,19 @@
         <v>50</v>
       </c>
       <c r="J121" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>181</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M121" s="15" t="s">
         <v>182</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O121" s="1" t="s">
         <v>184</v>
@@ -6717,7 +6765,7 @@
     </row>
     <row r="124" spans="1:19">
       <c r="A124" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>10</v>
@@ -6738,13 +6786,13 @@
         <v>29</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I124" s="13" t="s">
         <v>179</v>
       </c>
       <c r="J124" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>181</v>
@@ -6753,13 +6801,13 @@
         <v>182</v>
       </c>
       <c r="M124" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N124" s="11" t="s">
         <v>184</v>
       </c>
       <c r="O124" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P124" s="11" t="s">
         <v>110</v>
@@ -6844,7 +6892,7 @@
     </row>
     <row r="127" spans="1:19">
       <c r="A127" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>10</v>
@@ -6865,13 +6913,13 @@
         <v>29</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I127" s="13" t="s">
         <v>179</v>
       </c>
       <c r="J127" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>181</v>
@@ -6880,13 +6928,13 @@
         <v>182</v>
       </c>
       <c r="M127" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N127" s="11" t="s">
         <v>184</v>
       </c>
       <c r="O127" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P127" s="11" t="s">
         <v>110</v>
@@ -6971,7 +7019,7 @@
     </row>
     <row r="130" spans="1:19">
       <c r="A130" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>10</v>
@@ -6998,7 +7046,7 @@
         <v>179</v>
       </c>
       <c r="J130" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>181</v>
@@ -7007,13 +7055,13 @@
         <v>182</v>
       </c>
       <c r="M130" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N130" s="11" t="s">
         <v>184</v>
       </c>
       <c r="O130" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P130" s="11" t="s">
         <v>110</v>
@@ -7098,7 +7146,7 @@
     </row>
     <row r="133" spans="1:19">
       <c r="A133" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>10</v>
@@ -7125,7 +7173,7 @@
         <v>179</v>
       </c>
       <c r="J133" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>181</v>
@@ -7134,13 +7182,13 @@
         <v>182</v>
       </c>
       <c r="M133" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N133" s="11" t="s">
         <v>184</v>
       </c>
       <c r="O133" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P133" s="11" t="s">
         <v>110</v>
@@ -7223,15 +7271,15 @@
         <v>55</v>
       </c>
       <c r="R135" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S135" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="136" spans="1:19">
       <c r="A136" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>10</v>
@@ -7252,13 +7300,13 @@
         <v>29</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I136" s="13" t="s">
         <v>179</v>
       </c>
       <c r="J136" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>181</v>
@@ -7267,25 +7315,25 @@
         <v>182</v>
       </c>
       <c r="M136" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N136" s="11" t="s">
         <v>184</v>
       </c>
       <c r="O136" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P136" s="11" t="s">
         <v>110</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R136" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -7362,15 +7410,15 @@
         <v>55</v>
       </c>
       <c r="R138" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S138" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="139" spans="1:19">
       <c r="A139" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>10</v>
@@ -7391,13 +7439,13 @@
         <v>29</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I139" s="13" t="s">
         <v>179</v>
       </c>
       <c r="J139" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>181</v>
@@ -7406,25 +7454,25 @@
         <v>182</v>
       </c>
       <c r="M139" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N139" s="11" t="s">
         <v>184</v>
       </c>
       <c r="O139" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P139" s="11" t="s">
         <v>110</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R139" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -7501,15 +7549,15 @@
         <v>55</v>
       </c>
       <c r="R141" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S141" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="142" spans="1:19">
       <c r="A142" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>10</v>
@@ -7536,7 +7584,7 @@
         <v>179</v>
       </c>
       <c r="J142" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>181</v>
@@ -7545,25 +7593,25 @@
         <v>182</v>
       </c>
       <c r="M142" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N142" s="11" t="s">
         <v>184</v>
       </c>
       <c r="O142" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P142" s="11" t="s">
         <v>110</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -7640,15 +7688,15 @@
         <v>55</v>
       </c>
       <c r="R144" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S144" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="145" spans="1:19">
       <c r="A145" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>10</v>
@@ -7675,7 +7723,7 @@
         <v>179</v>
       </c>
       <c r="J145" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>181</v>
@@ -7684,25 +7732,25 @@
         <v>182</v>
       </c>
       <c r="M145" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N145" s="11" t="s">
         <v>184</v>
       </c>
       <c r="O145" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P145" s="11" t="s">
         <v>110</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R145" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -7783,7 +7831,7 @@
     </row>
     <row r="148" spans="1:19">
       <c r="A148" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>10</v>
@@ -7813,7 +7861,7 @@
         <v>179</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>181</v>
@@ -7822,13 +7870,13 @@
         <v>182</v>
       </c>
       <c r="N148" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O148" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P148" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q148" s="11" t="s">
         <v>110</v>
@@ -7914,7 +7962,7 @@
     </row>
     <row r="151" spans="1:19">
       <c r="A151" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>10</v>
@@ -7944,7 +7992,7 @@
         <v>74</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>181</v>
@@ -7953,13 +8001,13 @@
         <v>182</v>
       </c>
       <c r="N151" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O151" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P151" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q151" s="11" t="s">
         <v>110</v>
@@ -8066,7 +8114,7 @@
     </row>
     <row r="155" spans="1:19">
       <c r="A155" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>10</v>
@@ -8090,13 +8138,13 @@
         <v>81</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J155" s="13" t="s">
         <v>179</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L155" s="1" t="s">
         <v>181</v>
@@ -8105,13 +8153,13 @@
         <v>182</v>
       </c>
       <c r="N155" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O155" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P155" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q155" s="11" t="s">
         <v>110</v>
@@ -8197,7 +8245,7 @@
     </row>
     <row r="158" spans="1:19">
       <c r="A158" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>10</v>
@@ -8224,10 +8272,10 @@
         <v>179</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L158" s="1" t="s">
         <v>181</v>
@@ -8236,13 +8284,13 @@
         <v>182</v>
       </c>
       <c r="N158" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O158" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P158" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q158" s="11" t="s">
         <v>110</v>
@@ -8328,7 +8376,7 @@
     </row>
     <row r="161" spans="1:19">
       <c r="A161" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>10</v>
@@ -8358,7 +8406,7 @@
         <v>179</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L161" s="1" t="s">
         <v>181</v>
@@ -8367,13 +8415,13 @@
         <v>182</v>
       </c>
       <c r="N161" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O161" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P161" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q161" s="11" t="s">
         <v>110</v>
@@ -8459,7 +8507,7 @@
     </row>
     <row r="164" spans="1:19">
       <c r="A164" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>10</v>
@@ -8489,7 +8537,7 @@
         <v>87</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L164" s="1" t="s">
         <v>181</v>
@@ -8498,13 +8546,13 @@
         <v>182</v>
       </c>
       <c r="N164" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O164" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P164" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q164" s="11" t="s">
         <v>110</v>
@@ -8590,7 +8638,7 @@
     </row>
     <row r="167" spans="1:19">
       <c r="A167" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>10</v>
@@ -8620,7 +8668,7 @@
         <v>179</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L167" s="1" t="s">
         <v>181</v>
@@ -8629,13 +8677,13 @@
         <v>182</v>
       </c>
       <c r="N167" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O167" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P167" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q167" s="11" t="s">
         <v>110</v>
@@ -8718,7 +8766,7 @@
     </row>
     <row r="170" spans="1:19">
       <c r="A170" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>10</v>
@@ -8748,10 +8796,10 @@
         <v>92</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>181</v>
@@ -8760,13 +8808,13 @@
         <v>182</v>
       </c>
       <c r="O170" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P170" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q170" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R170" s="11" t="s">
         <v>110</v>
@@ -8845,7 +8893,7 @@
     </row>
     <row r="173" spans="1:19">
       <c r="A173" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>10</v>
@@ -8875,7 +8923,7 @@
         <v>179</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L173" s="1" t="s">
         <v>181</v>
@@ -8884,13 +8932,13 @@
         <v>182</v>
       </c>
       <c r="N173" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O173" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P173" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q173" s="11" t="s">
         <v>110</v>
@@ -8975,7 +9023,7 @@
     </row>
     <row r="176" spans="1:19">
       <c r="A176" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>10</v>
@@ -9005,7 +9053,7 @@
         <v>98</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L176" s="1" t="s">
         <v>181</v>
@@ -9014,13 +9062,13 @@
         <v>182</v>
       </c>
       <c r="N176" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O176" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P176" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q176" s="11" t="s">
         <v>110</v>
@@ -9106,7 +9154,7 @@
     </row>
     <row r="179" spans="1:19">
       <c r="A179" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>10</v>
@@ -9136,22 +9184,22 @@
         <v>179</v>
       </c>
       <c r="K179" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M179" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N179" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O179" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P179" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q179" s="11" t="s">
         <v>110</v>
@@ -9239,7 +9287,7 @@
     </row>
     <row r="182" spans="1:19">
       <c r="A182" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>10</v>
@@ -9269,25 +9317,25 @@
         <v>107</v>
       </c>
       <c r="K182" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L182" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N182" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O182" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P182" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q182" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R182" s="11" t="s">
         <v>110</v>
@@ -9371,7 +9419,7 @@
         <v>171</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M185" s="7" t="s">
         <v>173</v>
@@ -9393,7 +9441,7 @@
     </row>
     <row r="186" spans="1:19">
       <c r="A186" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B186" s="18" t="s">
         <v>10</v>
@@ -9423,22 +9471,22 @@
         <v>179</v>
       </c>
       <c r="K186" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M186" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N186" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O186" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P186" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q186" s="11" t="s">
         <v>110</v>
@@ -9505,7 +9553,7 @@
         <v>103</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N188" s="7" t="s">
         <v>173</v>
@@ -9526,7 +9574,7 @@
     </row>
     <row r="189" spans="1:19">
       <c r="A189" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B189" s="18" t="s">
         <v>10</v>
@@ -9556,25 +9604,25 @@
         <v>114</v>
       </c>
       <c r="K189" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L189" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N189" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O189" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P189" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q189" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R189" s="11" t="s">
         <v>110</v>
@@ -9637,7 +9685,7 @@
         <v>171</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M191" s="7" t="s">
         <v>173</v>
@@ -9659,7 +9707,7 @@
     </row>
     <row r="192" spans="1:19">
       <c r="A192" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B192" s="18" t="s">
         <v>10</v>
@@ -9689,22 +9737,22 @@
         <v>179</v>
       </c>
       <c r="K192" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M192" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N192" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O192" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P192" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q192" s="11" t="s">
         <v>110</v>
@@ -9771,7 +9819,7 @@
         <v>103</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N194" s="7" t="s">
         <v>173</v>
@@ -9792,7 +9840,7 @@
     </row>
     <row r="195" spans="1:19">
       <c r="A195" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B195" s="18" t="s">
         <v>10</v>
@@ -9822,25 +9870,25 @@
         <v>119</v>
       </c>
       <c r="K195" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L195" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N195" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O195" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P195" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q195" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R195" s="11" t="s">
         <v>110</v>
@@ -9903,7 +9951,7 @@
         <v>171</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M197" s="7" t="s">
         <v>173</v>
@@ -9925,7 +9973,7 @@
     </row>
     <row r="198" spans="1:19">
       <c r="A198" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B198" s="18" t="s">
         <v>10</v>
@@ -9955,22 +10003,22 @@
         <v>179</v>
       </c>
       <c r="K198" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M198" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N198" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O198" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P198" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q198" s="11" t="s">
         <v>110</v>
@@ -10037,7 +10085,7 @@
         <v>103</v>
       </c>
       <c r="M200" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N200" s="7" t="s">
         <v>173</v>
@@ -10058,7 +10106,7 @@
     </row>
     <row r="201" spans="1:19">
       <c r="A201" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B201" s="18" t="s">
         <v>10</v>
@@ -10088,25 +10136,25 @@
         <v>124</v>
       </c>
       <c r="K201" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L201" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N201" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O201" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P201" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q201" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R201" s="11" t="s">
         <v>110</v>
@@ -10169,7 +10217,7 @@
         <v>171</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M203" s="7" t="s">
         <v>173</v>
@@ -10191,7 +10239,7 @@
     </row>
     <row r="204" spans="1:19">
       <c r="A204" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B204" s="18" t="s">
         <v>10</v>
@@ -10221,22 +10269,22 @@
         <v>179</v>
       </c>
       <c r="K204" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M204" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N204" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O204" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P204" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q204" s="11" t="s">
         <v>110</v>
@@ -10303,7 +10351,7 @@
         <v>103</v>
       </c>
       <c r="M206" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N206" s="7" t="s">
         <v>173</v>
@@ -10324,7 +10372,7 @@
     </row>
     <row r="207" spans="1:19">
       <c r="A207" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B207" s="18" t="s">
         <v>10</v>
@@ -10354,25 +10402,25 @@
         <v>129</v>
       </c>
       <c r="K207" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L207" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M207" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N207" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O207" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P207" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q207" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R207" s="11" t="s">
         <v>110</v>
@@ -10411,7 +10459,7 @@
         <v>132</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L209" s="7" t="s">
         <v>173</v>
@@ -10434,7 +10482,7 @@
     </row>
     <row r="210" spans="1:19">
       <c r="A210" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B210" s="18" t="s">
         <v>10</v>
@@ -10464,19 +10512,19 @@
         <v>136</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L210" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M210" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N210" s="11" t="s">
         <v>184</v>
       </c>
       <c r="O210" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P210" s="11" t="s">
         <v>110</v>
@@ -10517,13 +10565,13 @@
         <v>132</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M212" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N212" s="7" t="s">
         <v>173</v>
@@ -10546,7 +10594,7 @@
     </row>
     <row r="213" spans="1:19">
       <c r="A213" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B213" s="18" t="s">
         <v>10</v>
@@ -10582,25 +10630,25 @@
         <v>135</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N213" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O213" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P213" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q213" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R213" s="11" t="s">
         <v>110</v>
       </c>
       <c r="S213" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="215" spans="1:19">
@@ -10629,7 +10677,7 @@
         <v>102</v>
       </c>
       <c r="I215" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>170</v>
@@ -10638,7 +10686,7 @@
         <v>171</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M215" s="7" t="s">
         <v>173</v>
@@ -10660,7 +10708,7 @@
     </row>
     <row r="216" spans="1:19">
       <c r="A216" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>10</v>
@@ -10690,22 +10738,22 @@
         <v>179</v>
       </c>
       <c r="K216" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M216" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N216" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O216" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P216" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q216" s="11" t="s">
         <v>110</v>
@@ -10763,13 +10811,13 @@
         <v>170</v>
       </c>
       <c r="J218" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M218" s="7" t="s">
         <v>173</v>
@@ -10791,7 +10839,7 @@
     </row>
     <row r="219" spans="1:19">
       <c r="A219" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>10</v>
@@ -10821,22 +10869,22 @@
         <v>143</v>
       </c>
       <c r="K219" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M219" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N219" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O219" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P219" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q219" s="11" t="s">
         <v>110</v>
@@ -10891,7 +10939,7 @@
         <v>102</v>
       </c>
       <c r="I221" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>170</v>
@@ -10900,10 +10948,10 @@
         <v>171</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M221" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N221" s="7" t="s">
         <v>173</v>
@@ -10925,7 +10973,7 @@
     </row>
     <row r="222" spans="1:20">
       <c r="A222" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>10</v>
@@ -10955,25 +11003,25 @@
         <v>179</v>
       </c>
       <c r="K222" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M222" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N222" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O222" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P222" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q222" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R222" s="11" t="s">
         <v>110</v>
@@ -11031,16 +11079,16 @@
         <v>170</v>
       </c>
       <c r="J224" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K224" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M224" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N224" s="7" t="s">
         <v>173</v>
@@ -11062,7 +11110,7 @@
     </row>
     <row r="225" spans="1:20">
       <c r="A225" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>10</v>
@@ -11092,25 +11140,25 @@
         <v>150</v>
       </c>
       <c r="K225" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M225" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N225" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O225" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P225" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q225" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R225" s="11" t="s">
         <v>110</v>
@@ -11165,7 +11213,7 @@
         <v>102</v>
       </c>
       <c r="I227" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>170</v>
@@ -11174,10 +11222,10 @@
         <v>171</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N227" s="7" t="s">
         <v>173</v>
@@ -11199,7 +11247,7 @@
     </row>
     <row r="228" spans="1:20">
       <c r="A228" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>10</v>
@@ -11229,25 +11277,25 @@
         <v>179</v>
       </c>
       <c r="K228" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M228" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N228" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O228" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P228" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q228" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R228" s="11" t="s">
         <v>110</v>
@@ -11305,16 +11353,16 @@
         <v>170</v>
       </c>
       <c r="J230" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K230" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N230" s="7" t="s">
         <v>173</v>
@@ -11336,7 +11384,7 @@
     </row>
     <row r="231" spans="1:20">
       <c r="A231" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>10</v>
@@ -11366,25 +11414,25 @@
         <v>157</v>
       </c>
       <c r="K231" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M231" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N231" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O231" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P231" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q231" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R231" s="11" t="s">
         <v>110</v>
@@ -11440,7 +11488,7 @@
         <v>102</v>
       </c>
       <c r="I233" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>170</v>
@@ -11449,7 +11497,7 @@
         <v>171</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M233" s="7" t="s">
         <v>173</v>
@@ -11472,7 +11520,7 @@
     </row>
     <row r="234" spans="1:20">
       <c r="A234" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>10</v>
@@ -11502,22 +11550,22 @@
         <v>179</v>
       </c>
       <c r="K234" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M234" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N234" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O234" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P234" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q234" s="11" t="s">
         <v>110</v>
@@ -11576,13 +11624,13 @@
         <v>170</v>
       </c>
       <c r="J236" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K236" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M236" s="7" t="s">
         <v>173</v>
@@ -11600,15 +11648,15 @@
         <v>38</v>
       </c>
       <c r="R236" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S236" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="237" spans="1:19">
       <c r="A237" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>10</v>
@@ -11638,28 +11686,28 @@
         <v>166</v>
       </c>
       <c r="K237" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M237" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N237" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O237" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P237" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q237" s="11" t="s">
         <v>110</v>
       </c>
       <c r="R237" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S237" s="1" t="s">
         <v>164</v>
@@ -11712,7 +11760,7 @@
     </row>
     <row r="240" spans="1:19">
       <c r="A240" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>10</v>
@@ -11736,16 +11784,16 @@
         <v>179</v>
       </c>
       <c r="I240" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J240" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K240" s="11" t="s">
         <v>184</v>
       </c>
       <c r="L240" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
@@ -11792,7 +11840,7 @@
     </row>
     <row r="243" spans="1:19">
       <c r="A243" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>10</v>
@@ -11848,10 +11896,10 @@
         <v>22</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>171</v>
@@ -11868,7 +11916,7 @@
     </row>
     <row r="246" spans="1:19">
       <c r="A246" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>10</v>
@@ -11889,10 +11937,10 @@
         <v>29</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>191</v>
@@ -11930,7 +11978,7 @@
         <v>22</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>5</v>
@@ -11942,29 +11990,29 @@
         <v>7</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O248" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P248" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q248" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R248" s="1"/>
       <c r="S248" s="1"/>
     </row>
     <row r="249" spans="1:19">
       <c r="A249" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>10</v>
@@ -11985,34 +12033,34 @@
         <v>29</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K249" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L249" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O249" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P249" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q249" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R249" s="1"/>
       <c r="S249" s="1"/>
@@ -12052,7 +12100,7 @@
         <v>70</v>
       </c>
       <c r="L252" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M252" s="7"/>
       <c r="N252" s="1"/>
@@ -12064,7 +12112,7 @@
     </row>
     <row r="253" spans="1:19">
       <c r="A253" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>10</v>
@@ -12091,13 +12139,13 @@
         <v>179</v>
       </c>
       <c r="J253" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M253" s="11"/>
       <c r="N253" s="11"/>
@@ -12145,7 +12193,7 @@
         <v>172</v>
       </c>
       <c r="M255" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
@@ -12156,7 +12204,7 @@
     </row>
     <row r="256" spans="1:19">
       <c r="A256" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>10</v>
@@ -12186,13 +12234,13 @@
         <v>190</v>
       </c>
       <c r="K256" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L256" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N256" s="15"/>
       <c r="O256" s="1"/>
@@ -12236,7 +12284,7 @@
         <v>172</v>
       </c>
       <c r="L258" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
@@ -12248,7 +12296,7 @@
     </row>
     <row r="259" spans="1:19">
       <c r="A259" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>10</v>
@@ -12275,13 +12323,13 @@
         <v>196</v>
       </c>
       <c r="J259" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K259" s="1" t="s">
         <v>181</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M259" s="15"/>
       <c r="N259" s="1"/>
@@ -12326,7 +12374,7 @@
         <v>172</v>
       </c>
       <c r="L261" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
@@ -12338,7 +12386,7 @@
     </row>
     <row r="262" spans="1:19">
       <c r="A262" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>10</v>
@@ -12359,19 +12407,19 @@
         <v>29</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>196</v>
       </c>
       <c r="J262" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K262" s="1" t="s">
         <v>181</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M262" s="15"/>
       <c r="N262" s="1"/>
@@ -12407,7 +12455,7 @@
         <v>170</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>171</v>
@@ -12416,7 +12464,7 @@
         <v>172</v>
       </c>
       <c r="L264" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
@@ -12428,7 +12476,7 @@
     </row>
     <row r="265" spans="1:19">
       <c r="A265" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>10</v>
@@ -12455,13 +12503,13 @@
         <v>41</v>
       </c>
       <c r="J265" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K265" s="1" t="s">
         <v>181</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
@@ -12497,7 +12545,7 @@
         <v>170</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>171</v>
@@ -12506,7 +12554,7 @@
         <v>172</v>
       </c>
       <c r="L267" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
@@ -12518,7 +12566,7 @@
     </row>
     <row r="268" spans="1:19">
       <c r="A268" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>10</v>
@@ -12545,13 +12593,13 @@
         <v>50</v>
       </c>
       <c r="J268" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K268" s="1" t="s">
         <v>181</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
@@ -12617,7 +12665,7 @@
         <v>172</v>
       </c>
       <c r="L270" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M270" s="7"/>
       <c r="N270" s="21"/>
@@ -12629,7 +12677,7 @@
     </row>
     <row r="271" spans="1:19">
       <c r="A271" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>10</v>
@@ -12656,13 +12704,13 @@
         <v>179</v>
       </c>
       <c r="J271" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K271" s="1" t="s">
         <v>181</v>
       </c>
       <c r="L271" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M271" s="1"/>
       <c r="N271" s="20"/>
@@ -12728,7 +12776,7 @@
         <v>172</v>
       </c>
       <c r="L273" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M273" s="7"/>
       <c r="N273" s="21"/>
@@ -12740,7 +12788,7 @@
     </row>
     <row r="274" spans="1:19">
       <c r="A274" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>10</v>
@@ -12767,13 +12815,13 @@
         <v>179</v>
       </c>
       <c r="J274" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K274" s="1" t="s">
         <v>181</v>
       </c>
       <c r="L274" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M274" s="1"/>
       <c r="N274" s="20"/>
@@ -12818,7 +12866,7 @@
         <v>55</v>
       </c>
       <c r="K276" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L276" s="1" t="s">
         <v>171</v>
@@ -12827,7 +12875,7 @@
         <v>172</v>
       </c>
       <c r="N276" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O276" s="7"/>
       <c r="P276" s="1"/>
@@ -12837,7 +12885,7 @@
     </row>
     <row r="277" spans="1:19">
       <c r="A277" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>10</v>
@@ -12867,16 +12915,16 @@
         <v>63</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L277" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M277" s="1" t="s">
         <v>181</v>
       </c>
       <c r="N277" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O277" s="1"/>
       <c r="P277" s="11"/>
@@ -12937,7 +12985,7 @@
         <v>55</v>
       </c>
       <c r="K279" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L279" s="1" t="s">
         <v>171</v>
@@ -12946,7 +12994,7 @@
         <v>172</v>
       </c>
       <c r="N279" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O279" s="13"/>
       <c r="P279" s="1"/>
@@ -12956,7 +13004,7 @@
     </row>
     <row r="280" spans="1:19">
       <c r="A280" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>10</v>
@@ -12986,16 +13034,16 @@
         <v>63</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L280" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M280" s="1" t="s">
         <v>181</v>
       </c>
       <c r="N280" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O280" s="8"/>
       <c r="P280" s="11"/>
@@ -13038,7 +13086,7 @@
         <v>70</v>
       </c>
       <c r="L282" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M282" s="7"/>
       <c r="N282" s="1"/>
@@ -13050,7 +13098,7 @@
     </row>
     <row r="283" spans="1:19">
       <c r="A283" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>10</v>
@@ -13077,13 +13125,13 @@
         <v>179</v>
       </c>
       <c r="J283" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M283" s="11"/>
       <c r="N283" s="11"/>
@@ -13131,7 +13179,7 @@
         <v>172</v>
       </c>
       <c r="M285" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
@@ -13142,7 +13190,7 @@
     </row>
     <row r="286" spans="1:19">
       <c r="A286" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>10</v>
@@ -13172,13 +13220,13 @@
         <v>190</v>
       </c>
       <c r="K286" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L286" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M286" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N286" s="15"/>
       <c r="O286" s="1"/>
@@ -13222,7 +13270,7 @@
         <v>172</v>
       </c>
       <c r="L288" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
@@ -13234,7 +13282,7 @@
     </row>
     <row r="289" spans="1:19">
       <c r="A289" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>10</v>
@@ -13261,13 +13309,13 @@
         <v>196</v>
       </c>
       <c r="J289" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K289" s="1" t="s">
         <v>181</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M289" s="10"/>
       <c r="N289" s="1"/>
@@ -13312,7 +13360,7 @@
         <v>172</v>
       </c>
       <c r="L291" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
@@ -13324,7 +13372,7 @@
     </row>
     <row r="292" spans="1:19">
       <c r="A292" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>10</v>
@@ -13345,19 +13393,19 @@
         <v>29</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I292" s="1" t="s">
         <v>196</v>
       </c>
       <c r="J292" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K292" s="1" t="s">
         <v>181</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M292" s="10"/>
       <c r="N292" s="1"/>
@@ -13393,7 +13441,7 @@
         <v>170</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>171</v>
@@ -13402,7 +13450,7 @@
         <v>172</v>
       </c>
       <c r="L294" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
@@ -13414,7 +13462,7 @@
     </row>
     <row r="295" spans="1:19">
       <c r="A295" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>10</v>
@@ -13441,13 +13489,13 @@
         <v>41</v>
       </c>
       <c r="J295" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K295" s="1" t="s">
         <v>181</v>
       </c>
       <c r="L295" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M295" s="10"/>
       <c r="N295" s="1"/>
@@ -13483,7 +13531,7 @@
         <v>170</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>171</v>
@@ -13492,7 +13540,7 @@
         <v>172</v>
       </c>
       <c r="L297" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
@@ -13504,7 +13552,7 @@
     </row>
     <row r="298" spans="1:19">
       <c r="A298" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>10</v>
@@ -13531,13 +13579,13 @@
         <v>50</v>
       </c>
       <c r="J298" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K298" s="1" t="s">
         <v>181</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M298" s="10"/>
       <c r="N298" s="1"/>
@@ -13603,7 +13651,7 @@
         <v>172</v>
       </c>
       <c r="L300" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
@@ -13615,7 +13663,7 @@
     </row>
     <row r="301" spans="1:19">
       <c r="A301" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>10</v>
@@ -13642,13 +13690,13 @@
         <v>179</v>
       </c>
       <c r="J301" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K301" s="1" t="s">
         <v>181</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
@@ -13714,7 +13762,7 @@
         <v>172</v>
       </c>
       <c r="L303" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
@@ -13726,7 +13774,7 @@
     </row>
     <row r="304" spans="1:19">
       <c r="A304" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>10</v>
@@ -13753,13 +13801,13 @@
         <v>179</v>
       </c>
       <c r="J304" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K304" s="1" t="s">
         <v>181</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
@@ -13801,7 +13849,7 @@
         <v>55</v>
       </c>
       <c r="K306" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L306" s="1" t="s">
         <v>171</v>
@@ -13810,7 +13858,7 @@
         <v>172</v>
       </c>
       <c r="N306" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O306" s="7"/>
       <c r="P306" s="1"/>
@@ -13820,7 +13868,7 @@
     </row>
     <row r="307" spans="1:19">
       <c r="A307" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>10</v>
@@ -13850,16 +13898,16 @@
         <v>63</v>
       </c>
       <c r="K307" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L307" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M307" s="1" t="s">
         <v>181</v>
       </c>
       <c r="N307" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O307" s="1"/>
       <c r="P307" s="11"/>
@@ -13920,7 +13968,7 @@
         <v>55</v>
       </c>
       <c r="K309" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L309" s="1" t="s">
         <v>171</v>
@@ -13929,7 +13977,7 @@
         <v>172</v>
       </c>
       <c r="N309" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O309" s="13"/>
       <c r="P309" s="1"/>
@@ -13939,7 +13987,7 @@
     </row>
     <row r="310" spans="1:19">
       <c r="A310" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>10</v>
@@ -13969,16 +14017,16 @@
         <v>65</v>
       </c>
       <c r="K310" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L310" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M310" s="1" t="s">
         <v>181</v>
       </c>
       <c r="N310" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O310" s="10"/>
       <c r="P310" s="11"/>
@@ -14024,7 +14072,7 @@
         <v>172</v>
       </c>
       <c r="M312" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N312" s="7"/>
       <c r="O312" s="1"/>
@@ -14035,7 +14083,7 @@
     </row>
     <row r="313" spans="1:19">
       <c r="A313" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>10</v>
@@ -14065,13 +14113,13 @@
         <v>179</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L313" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M313" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N313" s="11"/>
       <c r="O313" s="11"/>
@@ -14139,7 +14187,7 @@
         <v>172</v>
       </c>
       <c r="M315" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N315" s="7"/>
       <c r="O315" s="1"/>
@@ -14150,7 +14198,7 @@
     </row>
     <row r="316" spans="1:19">
       <c r="A316" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>10</v>
@@ -14180,13 +14228,13 @@
         <v>74</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L316" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M316" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N316" s="11"/>
       <c r="O316" s="11"/>
@@ -14253,7 +14301,7 @@
         <v>172</v>
       </c>
       <c r="M318" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N318" s="7"/>
       <c r="O318" s="1"/>
@@ -14264,7 +14312,7 @@
     </row>
     <row r="319" spans="1:19">
       <c r="A319" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>10</v>
@@ -14294,13 +14342,13 @@
         <v>179</v>
       </c>
       <c r="K319" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L319" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M319" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N319" s="11"/>
       <c r="O319" s="11"/>
@@ -14368,7 +14416,7 @@
         <v>172</v>
       </c>
       <c r="M321" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N321" s="7"/>
       <c r="O321" s="1"/>
@@ -14379,7 +14427,7 @@
     </row>
     <row r="322" spans="1:19">
       <c r="A322" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>10</v>
@@ -14409,13 +14457,13 @@
         <v>87</v>
       </c>
       <c r="K322" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L322" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M322" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N322" s="11"/>
       <c r="O322" s="11"/>
@@ -14483,7 +14531,7 @@
         <v>172</v>
       </c>
       <c r="M324" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N324" s="7"/>
       <c r="O324" s="1"/>
@@ -14494,7 +14542,7 @@
     </row>
     <row r="325" spans="1:19">
       <c r="A325" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>10</v>
@@ -14524,13 +14572,13 @@
         <v>179</v>
       </c>
       <c r="K325" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L325" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M325" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N325" s="11"/>
       <c r="O325" s="11"/>
@@ -14596,7 +14644,7 @@
         <v>172</v>
       </c>
       <c r="N327" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O327" s="7"/>
       <c r="P327" s="1"/>
@@ -14606,7 +14654,7 @@
     </row>
     <row r="328" spans="1:19">
       <c r="A328" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>10</v>
@@ -14636,16 +14684,16 @@
         <v>92</v>
       </c>
       <c r="K328" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L328" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M328" s="1" t="s">
         <v>181</v>
       </c>
       <c r="N328" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O328" s="11"/>
       <c r="P328" s="11"/>
@@ -14707,7 +14755,7 @@
         <v>172</v>
       </c>
       <c r="M330" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N330" s="7"/>
       <c r="O330" s="1"/>
@@ -14717,7 +14765,7 @@
     </row>
     <row r="331" spans="1:19">
       <c r="A331" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>10</v>
@@ -14747,13 +14795,13 @@
         <v>179</v>
       </c>
       <c r="K331" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L331" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M331" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N331" s="11"/>
       <c r="O331" s="11"/>
@@ -14820,7 +14868,7 @@
         <v>172</v>
       </c>
       <c r="M333" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N333" s="7"/>
       <c r="O333" s="1"/>
@@ -14831,7 +14879,7 @@
     </row>
     <row r="334" spans="1:19">
       <c r="A334" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>10</v>
@@ -14861,13 +14909,13 @@
         <v>98</v>
       </c>
       <c r="K334" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L334" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M334" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N334" s="11"/>
       <c r="O334" s="11"/>
@@ -14914,7 +14962,7 @@
         <v>172</v>
       </c>
       <c r="M336" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N336" s="7"/>
       <c r="O336" s="1"/>
@@ -14925,7 +14973,7 @@
     </row>
     <row r="337" spans="1:19">
       <c r="A337" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>10</v>
@@ -14955,13 +15003,13 @@
         <v>179</v>
       </c>
       <c r="K337" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L337" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M337" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N337" s="11"/>
       <c r="O337" s="11"/>
@@ -15029,7 +15077,7 @@
         <v>172</v>
       </c>
       <c r="M339" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N339" s="7"/>
       <c r="O339" s="1"/>
@@ -15040,7 +15088,7 @@
     </row>
     <row r="340" spans="1:19">
       <c r="A340" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>10</v>
@@ -15070,13 +15118,13 @@
         <v>74</v>
       </c>
       <c r="K340" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L340" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M340" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N340" s="11"/>
       <c r="O340" s="11"/>
@@ -15143,7 +15191,7 @@
         <v>172</v>
       </c>
       <c r="M342" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N342" s="7"/>
       <c r="O342" s="1"/>
@@ -15154,7 +15202,7 @@
     </row>
     <row r="343" spans="1:19">
       <c r="A343" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>10</v>
@@ -15184,13 +15232,13 @@
         <v>179</v>
       </c>
       <c r="K343" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L343" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M343" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N343" s="11"/>
       <c r="O343" s="11"/>
@@ -15258,7 +15306,7 @@
         <v>172</v>
       </c>
       <c r="M345" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N345" s="7"/>
       <c r="O345" s="1"/>
@@ -15269,7 +15317,7 @@
     </row>
     <row r="346" spans="1:19">
       <c r="A346" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>10</v>
@@ -15299,13 +15347,13 @@
         <v>87</v>
       </c>
       <c r="K346" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L346" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M346" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N346" s="11"/>
       <c r="O346" s="11"/>
@@ -15373,7 +15421,7 @@
         <v>172</v>
       </c>
       <c r="M348" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N348" s="7"/>
       <c r="O348" s="1"/>
@@ -15384,7 +15432,7 @@
     </row>
     <row r="349" spans="1:19">
       <c r="A349" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>10</v>
@@ -15414,13 +15462,13 @@
         <v>179</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L349" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M349" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N349" s="11"/>
       <c r="O349" s="11"/>
@@ -15486,7 +15534,7 @@
         <v>172</v>
       </c>
       <c r="N351" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O351" s="7"/>
       <c r="P351" s="1"/>
@@ -15496,7 +15544,7 @@
     </row>
     <row r="352" spans="1:19">
       <c r="A352" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>10</v>
@@ -15526,16 +15574,16 @@
         <v>92</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L352" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M352" s="1" t="s">
         <v>181</v>
       </c>
       <c r="N352" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O352" s="11"/>
       <c r="P352" s="11"/>
@@ -15597,7 +15645,7 @@
         <v>172</v>
       </c>
       <c r="M354" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N354" s="7"/>
       <c r="O354" s="1"/>
@@ -15607,7 +15655,7 @@
     </row>
     <row r="355" spans="1:19">
       <c r="A355" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>10</v>
@@ -15637,13 +15685,13 @@
         <v>179</v>
       </c>
       <c r="K355" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L355" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M355" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N355" s="11"/>
       <c r="O355" s="11"/>
@@ -15710,7 +15758,7 @@
         <v>172</v>
       </c>
       <c r="M357" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N357" s="7"/>
       <c r="O357" s="1"/>
@@ -15721,7 +15769,7 @@
     </row>
     <row r="358" spans="1:19">
       <c r="A358" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>10</v>
@@ -15751,13 +15799,13 @@
         <v>98</v>
       </c>
       <c r="K358" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L358" s="1" t="s">
         <v>181</v>
       </c>
       <c r="M358" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N358" s="11"/>
       <c r="O358" s="11"/>
@@ -15804,7 +15852,7 @@
         <v>70</v>
       </c>
       <c r="M360" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N360" s="7"/>
       <c r="O360" s="1"/>
@@ -15815,7 +15863,7 @@
     </row>
     <row r="361" spans="1:19">
       <c r="A361" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>10</v>
@@ -15845,13 +15893,13 @@
         <v>179</v>
       </c>
       <c r="K361" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L361" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M361" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N361" s="10"/>
       <c r="O361" s="11"/>
@@ -15922,7 +15970,7 @@
         <v>70</v>
       </c>
       <c r="N363" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O363" s="7"/>
       <c r="P363" s="1"/>
@@ -15932,7 +15980,7 @@
     </row>
     <row r="364" spans="1:19">
       <c r="A364" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>10</v>
@@ -15962,16 +16010,16 @@
         <v>107</v>
       </c>
       <c r="K364" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L364" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M364" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N364" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O364" s="10"/>
       <c r="P364" s="11"/>
@@ -16056,10 +16104,10 @@
         <v>171</v>
       </c>
       <c r="L367" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M367" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N367" s="7"/>
       <c r="O367" s="1"/>
@@ -16070,7 +16118,7 @@
     </row>
     <row r="368" spans="1:19">
       <c r="A368" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B368" s="18" t="s">
         <v>10</v>
@@ -16100,13 +16148,13 @@
         <v>179</v>
       </c>
       <c r="K368" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L368" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M368" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N368" s="10"/>
       <c r="O368" s="11"/>
@@ -16174,10 +16222,10 @@
         <v>103</v>
       </c>
       <c r="M370" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N370" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O370" s="7"/>
       <c r="P370" s="1"/>
@@ -16187,7 +16235,7 @@
     </row>
     <row r="371" spans="1:19">
       <c r="A371" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B371" s="18" t="s">
         <v>10</v>
@@ -16217,16 +16265,16 @@
         <v>114</v>
       </c>
       <c r="K371" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L371" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M371" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N371" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O371" s="10"/>
       <c r="P371" s="11"/>
@@ -16290,10 +16338,10 @@
         <v>171</v>
       </c>
       <c r="L373" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M373" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N373" s="7"/>
       <c r="O373" s="1"/>
@@ -16304,7 +16352,7 @@
     </row>
     <row r="374" spans="1:19">
       <c r="A374" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B374" s="18" t="s">
         <v>10</v>
@@ -16334,13 +16382,13 @@
         <v>179</v>
       </c>
       <c r="K374" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L374" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M374" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N374" s="10"/>
       <c r="O374" s="11"/>
@@ -16408,10 +16456,10 @@
         <v>103</v>
       </c>
       <c r="M376" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N376" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O376" s="7"/>
       <c r="P376" s="1"/>
@@ -16421,7 +16469,7 @@
     </row>
     <row r="377" spans="1:19">
       <c r="A377" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B377" s="18" t="s">
         <v>10</v>
@@ -16451,16 +16499,16 @@
         <v>119</v>
       </c>
       <c r="K377" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L377" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M377" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N377" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O377" s="10"/>
       <c r="P377" s="11"/>
@@ -16524,10 +16572,10 @@
         <v>171</v>
       </c>
       <c r="L379" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M379" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N379" s="7"/>
       <c r="O379" s="1"/>
@@ -16538,7 +16586,7 @@
     </row>
     <row r="380" spans="1:19">
       <c r="A380" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B380" s="18" t="s">
         <v>10</v>
@@ -16568,13 +16616,13 @@
         <v>179</v>
       </c>
       <c r="K380" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L380" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M380" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N380" s="10"/>
       <c r="O380" s="11"/>
@@ -16642,10 +16690,10 @@
         <v>103</v>
       </c>
       <c r="M382" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N382" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O382" s="7"/>
       <c r="P382" s="1"/>
@@ -16655,7 +16703,7 @@
     </row>
     <row r="383" spans="1:19">
       <c r="A383" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B383" s="18" t="s">
         <v>10</v>
@@ -16685,16 +16733,16 @@
         <v>124</v>
       </c>
       <c r="K383" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L383" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M383" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N383" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O383" s="10"/>
       <c r="P383" s="11"/>
@@ -16758,10 +16806,10 @@
         <v>171</v>
       </c>
       <c r="L385" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M385" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N385" s="7"/>
       <c r="O385" s="1"/>
@@ -16772,7 +16820,7 @@
     </row>
     <row r="386" spans="1:19">
       <c r="A386" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B386" s="18" t="s">
         <v>10</v>
@@ -16802,13 +16850,13 @@
         <v>179</v>
       </c>
       <c r="K386" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L386" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M386" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N386" s="10"/>
       <c r="O386" s="11"/>
@@ -16855,10 +16903,10 @@
         <v>103</v>
       </c>
       <c r="M388" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N388" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O388" s="7"/>
       <c r="P388" s="1"/>
@@ -16868,7 +16916,7 @@
     </row>
     <row r="389" spans="1:19">
       <c r="A389" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B389" s="18" t="s">
         <v>10</v>
@@ -16898,16 +16946,16 @@
         <v>129</v>
       </c>
       <c r="K389" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L389" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M389" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N389" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O389" s="10"/>
       <c r="P389" s="11"/>
@@ -16947,10 +16995,10 @@
         <v>132</v>
       </c>
       <c r="K391" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L391" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M391" s="7"/>
       <c r="N391" s="1"/>
@@ -16962,7 +17010,7 @@
     </row>
     <row r="392" spans="1:19">
       <c r="A392" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B392" s="18" t="s">
         <v>10</v>
@@ -16992,10 +17040,10 @@
         <v>136</v>
       </c>
       <c r="K392" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L392" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M392" s="10"/>
       <c r="N392" s="11"/>
@@ -17037,16 +17085,16 @@
         <v>132</v>
       </c>
       <c r="K394" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L394" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M394" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N394" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O394" s="7"/>
       <c r="P394" s="1"/>
@@ -17056,7 +17104,7 @@
     </row>
     <row r="395" spans="1:19">
       <c r="A395" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B395" s="18" t="s">
         <v>10</v>
@@ -17092,10 +17140,10 @@
         <v>135</v>
       </c>
       <c r="M395" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N395" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O395" s="10"/>
       <c r="P395" s="11"/>
@@ -17129,7 +17177,7 @@
         <v>102</v>
       </c>
       <c r="I397" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J397" s="1" t="s">
         <v>170</v>
@@ -17138,10 +17186,10 @@
         <v>171</v>
       </c>
       <c r="L397" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M397" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N397" s="7"/>
       <c r="O397" s="1"/>
@@ -17152,7 +17200,7 @@
     </row>
     <row r="398" spans="1:19">
       <c r="A398" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>10</v>
@@ -17182,13 +17230,13 @@
         <v>179</v>
       </c>
       <c r="K398" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L398" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M398" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N398" s="10"/>
       <c r="O398" s="11"/>
@@ -17247,16 +17295,16 @@
         <v>170</v>
       </c>
       <c r="J400" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K400" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L400" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M400" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N400" s="7"/>
       <c r="O400" s="1"/>
@@ -17267,7 +17315,7 @@
     </row>
     <row r="401" spans="1:19">
       <c r="A401" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>10</v>
@@ -17297,13 +17345,13 @@
         <v>143</v>
       </c>
       <c r="K401" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L401" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M401" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N401" s="10"/>
       <c r="O401" s="11"/>
@@ -17359,7 +17407,7 @@
         <v>102</v>
       </c>
       <c r="I403" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J403" s="1" t="s">
         <v>170</v>
@@ -17368,10 +17416,10 @@
         <v>171</v>
       </c>
       <c r="L403" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M403" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N403" s="7"/>
       <c r="O403" s="7"/>
@@ -17383,7 +17431,7 @@
     </row>
     <row r="404" spans="1:20">
       <c r="A404" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>10</v>
@@ -17413,13 +17461,13 @@
         <v>179</v>
       </c>
       <c r="K404" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L404" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M404" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N404" s="12"/>
       <c r="O404" s="10"/>
@@ -17479,16 +17527,16 @@
         <v>170</v>
       </c>
       <c r="J406" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K406" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L406" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M406" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N406" s="7"/>
       <c r="O406" s="7"/>
@@ -17500,7 +17548,7 @@
     </row>
     <row r="407" spans="1:20">
       <c r="A407" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>10</v>
@@ -17530,13 +17578,13 @@
         <v>150</v>
       </c>
       <c r="K407" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L407" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M407" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N407" s="12"/>
       <c r="O407" s="10"/>
@@ -17593,7 +17641,7 @@
         <v>102</v>
       </c>
       <c r="I409" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J409" s="1" t="s">
         <v>170</v>
@@ -17602,10 +17650,10 @@
         <v>171</v>
       </c>
       <c r="L409" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M409" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N409" s="7"/>
       <c r="O409" s="7"/>
@@ -17617,7 +17665,7 @@
     </row>
     <row r="410" spans="1:20">
       <c r="A410" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>10</v>
@@ -17647,13 +17695,13 @@
         <v>179</v>
       </c>
       <c r="K410" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L410" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M410" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N410" s="12"/>
       <c r="O410" s="10"/>
@@ -17713,16 +17761,16 @@
         <v>170</v>
       </c>
       <c r="J412" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K412" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L412" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M412" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N412" s="7"/>
       <c r="O412" s="7"/>
@@ -17734,7 +17782,7 @@
     </row>
     <row r="413" spans="1:20">
       <c r="A413" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>10</v>
@@ -17764,13 +17812,13 @@
         <v>157</v>
       </c>
       <c r="K413" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L413" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M413" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N413" s="12"/>
       <c r="O413" s="10"/>
@@ -17828,7 +17876,7 @@
         <v>102</v>
       </c>
       <c r="I415" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J415" s="1" t="s">
         <v>170</v>
@@ -17837,10 +17885,10 @@
         <v>171</v>
       </c>
       <c r="L415" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M415" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N415" s="7"/>
       <c r="O415" s="1"/>
@@ -17852,7 +17900,7 @@
     </row>
     <row r="416" spans="1:20">
       <c r="A416" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>10</v>
@@ -17882,13 +17930,13 @@
         <v>179</v>
       </c>
       <c r="K416" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L416" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M416" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N416" s="10"/>
       <c r="O416" s="11"/>
@@ -17948,16 +17996,16 @@
         <v>170</v>
       </c>
       <c r="J418" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K418" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L418" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M418" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N418" s="7"/>
       <c r="O418" s="1"/>
@@ -17968,7 +18016,7 @@
     </row>
     <row r="419" spans="1:19">
       <c r="A419" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>10</v>
@@ -17998,13 +18046,13 @@
         <v>166</v>
       </c>
       <c r="K419" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L419" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M419" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N419" s="10"/>
       <c r="O419" s="11"/>
@@ -18051,7 +18099,7 @@
         <v>70</v>
       </c>
       <c r="M421" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N421" s="7"/>
       <c r="O421" s="1"/>
@@ -18062,7 +18110,7 @@
     </row>
     <row r="422" spans="1:19">
       <c r="A422" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>10</v>
@@ -18092,13 +18140,13 @@
         <v>179</v>
       </c>
       <c r="K422" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L422" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M422" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N422" s="10"/>
       <c r="O422" s="11"/>
@@ -18169,7 +18217,7 @@
         <v>70</v>
       </c>
       <c r="N424" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O424" s="7"/>
       <c r="P424" s="10"/>
@@ -18179,7 +18227,7 @@
     </row>
     <row r="425" spans="1:19">
       <c r="A425" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>10</v>
@@ -18209,16 +18257,16 @@
         <v>107</v>
       </c>
       <c r="K425" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L425" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M425" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N425" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O425" s="10"/>
       <c r="P425" s="10"/>
@@ -18303,10 +18351,10 @@
         <v>171</v>
       </c>
       <c r="L428" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M428" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N428" s="7"/>
       <c r="O428" s="1"/>
@@ -18317,7 +18365,7 @@
     </row>
     <row r="429" spans="1:19">
       <c r="A429" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B429" s="18" t="s">
         <v>10</v>
@@ -18347,13 +18395,13 @@
         <v>179</v>
       </c>
       <c r="K429" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L429" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M429" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N429" s="10"/>
       <c r="O429" s="11"/>
@@ -18421,10 +18469,10 @@
         <v>103</v>
       </c>
       <c r="M431" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N431" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O431" s="7"/>
       <c r="P431" s="10"/>
@@ -18434,7 +18482,7 @@
     </row>
     <row r="432" spans="1:19">
       <c r="A432" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B432" s="18" t="s">
         <v>10</v>
@@ -18464,16 +18512,16 @@
         <v>114</v>
       </c>
       <c r="K432" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L432" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M432" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N432" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O432" s="10"/>
       <c r="P432" s="10"/>
@@ -18537,10 +18585,10 @@
         <v>171</v>
       </c>
       <c r="L434" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M434" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N434" s="7"/>
       <c r="O434" s="1"/>
@@ -18551,7 +18599,7 @@
     </row>
     <row r="435" spans="1:19">
       <c r="A435" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B435" s="18" t="s">
         <v>10</v>
@@ -18581,13 +18629,13 @@
         <v>179</v>
       </c>
       <c r="K435" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L435" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M435" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N435" s="10"/>
       <c r="O435" s="11"/>
@@ -18655,10 +18703,10 @@
         <v>103</v>
       </c>
       <c r="M437" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N437" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O437" s="7"/>
       <c r="P437" s="10"/>
@@ -18668,7 +18716,7 @@
     </row>
     <row r="438" spans="1:19">
       <c r="A438" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B438" s="18" t="s">
         <v>10</v>
@@ -18698,16 +18746,16 @@
         <v>119</v>
       </c>
       <c r="K438" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L438" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M438" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N438" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O438" s="10"/>
       <c r="P438" s="10"/>
@@ -18771,10 +18819,10 @@
         <v>171</v>
       </c>
       <c r="L440" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M440" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N440" s="7"/>
       <c r="O440" s="1"/>
@@ -18785,7 +18833,7 @@
     </row>
     <row r="441" spans="1:19">
       <c r="A441" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B441" s="18" t="s">
         <v>10</v>
@@ -18815,13 +18863,13 @@
         <v>179</v>
       </c>
       <c r="K441" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L441" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M441" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N441" s="10"/>
       <c r="O441" s="11"/>
@@ -18889,10 +18937,10 @@
         <v>103</v>
       </c>
       <c r="M443" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N443" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O443" s="7"/>
       <c r="P443" s="10"/>
@@ -18902,7 +18950,7 @@
     </row>
     <row r="444" spans="1:19">
       <c r="A444" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B444" s="18" t="s">
         <v>10</v>
@@ -18932,16 +18980,16 @@
         <v>124</v>
       </c>
       <c r="K444" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L444" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M444" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N444" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O444" s="10"/>
       <c r="P444" s="10"/>
@@ -19005,10 +19053,10 @@
         <v>171</v>
       </c>
       <c r="L446" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M446" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N446" s="7"/>
       <c r="O446" s="1"/>
@@ -19019,7 +19067,7 @@
     </row>
     <row r="447" spans="1:19">
       <c r="A447" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B447" s="18" t="s">
         <v>10</v>
@@ -19049,13 +19097,13 @@
         <v>179</v>
       </c>
       <c r="K447" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L447" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M447" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N447" s="10"/>
       <c r="O447" s="11"/>
@@ -19108,10 +19156,10 @@
         <v>103</v>
       </c>
       <c r="M449" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N449" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O449" s="7"/>
       <c r="P449" s="10"/>
@@ -19121,7 +19169,7 @@
     </row>
     <row r="450" spans="1:19">
       <c r="A450" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B450" s="18" t="s">
         <v>10</v>
@@ -19151,16 +19199,16 @@
         <v>129</v>
       </c>
       <c r="K450" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L450" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M450" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N450" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O450" s="10"/>
       <c r="P450" s="10"/>
@@ -19206,10 +19254,10 @@
         <v>132</v>
       </c>
       <c r="K452" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L452" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M452" s="7"/>
       <c r="N452" s="1"/>
@@ -19221,7 +19269,7 @@
     </row>
     <row r="453" spans="1:19">
       <c r="A453" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B453" s="18" t="s">
         <v>10</v>
@@ -19251,10 +19299,10 @@
         <v>136</v>
       </c>
       <c r="K453" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L453" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M453" s="10"/>
       <c r="N453" s="11"/>
@@ -19302,16 +19350,16 @@
         <v>132</v>
       </c>
       <c r="K455" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L455" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M455" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N455" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O455" s="7"/>
       <c r="P455" s="10"/>
@@ -19321,7 +19369,7 @@
     </row>
     <row r="456" spans="1:19">
       <c r="A456" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B456" s="18" t="s">
         <v>10</v>
@@ -19357,10 +19405,10 @@
         <v>135</v>
       </c>
       <c r="M456" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N456" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O456" s="10"/>
       <c r="P456" s="10"/>
@@ -19400,7 +19448,7 @@
         <v>102</v>
       </c>
       <c r="I458" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J458" s="1" t="s">
         <v>170</v>
@@ -19409,10 +19457,10 @@
         <v>171</v>
       </c>
       <c r="L458" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M458" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N458" s="7"/>
       <c r="O458" s="1"/>
@@ -19423,7 +19471,7 @@
     </row>
     <row r="459" spans="1:19">
       <c r="A459" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>10</v>
@@ -19453,13 +19501,13 @@
         <v>179</v>
       </c>
       <c r="K459" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L459" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M459" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N459" s="10"/>
       <c r="O459" s="11"/>
@@ -19518,16 +19566,16 @@
         <v>170</v>
       </c>
       <c r="J461" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K461" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L461" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M461" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N461" s="7"/>
       <c r="O461" s="1"/>
@@ -19538,7 +19586,7 @@
     </row>
     <row r="462" spans="1:19">
       <c r="A462" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>10</v>
@@ -19568,13 +19616,13 @@
         <v>143</v>
       </c>
       <c r="K462" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L462" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M462" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N462" s="10"/>
       <c r="O462" s="11"/>
@@ -19630,7 +19678,7 @@
         <v>102</v>
       </c>
       <c r="I464" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J464" s="1" t="s">
         <v>170</v>
@@ -19639,10 +19687,10 @@
         <v>171</v>
       </c>
       <c r="L464" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M464" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N464" s="7"/>
       <c r="O464" s="7"/>
@@ -19653,7 +19701,7 @@
     </row>
     <row r="465" spans="1:19">
       <c r="A465" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>10</v>
@@ -19683,13 +19731,13 @@
         <v>179</v>
       </c>
       <c r="K465" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L465" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M465" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N465" s="12"/>
       <c r="O465" s="10"/>
@@ -19748,16 +19796,16 @@
         <v>170</v>
       </c>
       <c r="J467" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K467" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L467" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M467" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N467" s="7"/>
       <c r="O467" s="7"/>
@@ -19768,7 +19816,7 @@
     </row>
     <row r="468" spans="1:19">
       <c r="A468" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>10</v>
@@ -19798,13 +19846,13 @@
         <v>150</v>
       </c>
       <c r="K468" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L468" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M468" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N468" s="12"/>
       <c r="O468" s="10"/>
@@ -19860,7 +19908,7 @@
         <v>102</v>
       </c>
       <c r="I470" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J470" s="1" t="s">
         <v>170</v>
@@ -19869,10 +19917,10 @@
         <v>171</v>
       </c>
       <c r="L470" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M470" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N470" s="7"/>
       <c r="O470" s="7"/>
@@ -19883,7 +19931,7 @@
     </row>
     <row r="471" spans="1:19">
       <c r="A471" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>10</v>
@@ -19913,13 +19961,13 @@
         <v>179</v>
       </c>
       <c r="K471" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L471" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M471" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N471" s="12"/>
       <c r="O471" s="10"/>
@@ -19978,16 +20026,16 @@
         <v>170</v>
       </c>
       <c r="J473" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K473" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L473" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M473" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N473" s="7"/>
       <c r="O473" s="7"/>
@@ -19998,7 +20046,7 @@
     </row>
     <row r="474" spans="1:19">
       <c r="A474" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>10</v>
@@ -20028,13 +20076,13 @@
         <v>157</v>
       </c>
       <c r="K474" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L474" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M474" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N474" s="12"/>
       <c r="O474" s="10"/>
@@ -20090,7 +20138,7 @@
         <v>102</v>
       </c>
       <c r="I476" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J476" s="1" t="s">
         <v>170</v>
@@ -20099,10 +20147,10 @@
         <v>171</v>
       </c>
       <c r="L476" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M476" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N476" s="7"/>
       <c r="O476" s="1"/>
@@ -20113,7 +20161,7 @@
     </row>
     <row r="477" spans="1:19">
       <c r="A477" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>10</v>
@@ -20143,13 +20191,13 @@
         <v>179</v>
       </c>
       <c r="K477" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L477" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M477" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N477" s="10"/>
       <c r="O477" s="11"/>
@@ -20208,16 +20256,16 @@
         <v>170</v>
       </c>
       <c r="J479" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K479" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L479" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M479" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N479" s="7"/>
       <c r="O479" s="1"/>
@@ -20228,7 +20276,7 @@
     </row>
     <row r="480" spans="1:19">
       <c r="A480" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>10</v>
@@ -20258,13 +20306,13 @@
         <v>166</v>
       </c>
       <c r="K480" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L480" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M480" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N480" s="10"/>
       <c r="O480" s="11"/>
@@ -20326,7 +20374,7 @@
     </row>
     <row r="483" spans="1:19">
       <c r="A483" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>10</v>
@@ -20347,7 +20395,7 @@
         <v>29</v>
       </c>
       <c r="H483" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I483" s="10" t="s">
         <v>59</v>
@@ -20356,10 +20404,10 @@
         <v>60</v>
       </c>
       <c r="K483" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L483" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M483" s="6" t="s">
         <v>43</v>
@@ -20368,7 +20416,7 @@
         <v>44</v>
       </c>
       <c r="O483" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P483" s="1"/>
       <c r="Q483" s="1"/>
@@ -20419,7 +20467,7 @@
         <v>22</v>
       </c>
       <c r="H485" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I485" s="1" t="s">
         <v>53</v>
@@ -20449,7 +20497,7 @@
     </row>
     <row r="486" spans="1:19">
       <c r="A486" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>10</v>
@@ -20470,7 +20518,7 @@
         <v>29</v>
       </c>
       <c r="H486" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I486" s="10" t="s">
         <v>59</v>
@@ -20479,10 +20527,10 @@
         <v>60</v>
       </c>
       <c r="K486" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L486" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M486" s="6" t="s">
         <v>43</v>
@@ -20491,7 +20539,7 @@
         <v>44</v>
       </c>
       <c r="O486" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P486" s="1"/>
       <c r="Q486" s="1"/>
@@ -20553,7 +20601,7 @@
     </row>
     <row r="489" spans="1:19">
       <c r="A489" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>10</v>
@@ -20580,7 +20628,7 @@
         <v>179</v>
       </c>
       <c r="J489" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K489" s="1" t="s">
         <v>181</v>
@@ -20589,13 +20637,13 @@
         <v>182</v>
       </c>
       <c r="M489" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N489" s="11" t="s">
         <v>184</v>
       </c>
       <c r="O489" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P489" s="11" t="s">
         <v>110</v>
@@ -20680,7 +20728,7 @@
     </row>
     <row r="492" spans="1:19">
       <c r="A492" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>10</v>
@@ -20707,7 +20755,7 @@
         <v>179</v>
       </c>
       <c r="J492" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K492" s="1" t="s">
         <v>181</v>
@@ -20716,13 +20764,13 @@
         <v>182</v>
       </c>
       <c r="M492" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N492" s="11" t="s">
         <v>184</v>
       </c>
       <c r="O492" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P492" s="11" t="s">
         <v>110</v>
@@ -20805,15 +20853,15 @@
         <v>55</v>
       </c>
       <c r="R494" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S494" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="495" spans="1:19">
       <c r="A495" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>10</v>
@@ -20840,7 +20888,7 @@
         <v>179</v>
       </c>
       <c r="J495" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K495" s="1" t="s">
         <v>181</v>
@@ -20849,25 +20897,25 @@
         <v>182</v>
       </c>
       <c r="M495" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N495" s="11" t="s">
         <v>184</v>
       </c>
       <c r="O495" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P495" s="11" t="s">
         <v>110</v>
       </c>
       <c r="Q495" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R495" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S495" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="496" spans="1:19">
@@ -20944,15 +20992,15 @@
         <v>55</v>
       </c>
       <c r="R497" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S497" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="498" spans="1:19">
       <c r="A498" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>10</v>
@@ -20979,7 +21027,7 @@
         <v>179</v>
       </c>
       <c r="J498" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K498" s="1" t="s">
         <v>181</v>
@@ -20988,25 +21036,25 @@
         <v>182</v>
       </c>
       <c r="M498" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N498" s="11" t="s">
         <v>184</v>
       </c>
       <c r="O498" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P498" s="11" t="s">
         <v>110</v>
       </c>
       <c r="Q498" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R498" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S498" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="499" spans="1:19">
@@ -21079,7 +21127,7 @@
     </row>
     <row r="502" spans="1:19">
       <c r="A502" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>10</v>
@@ -21100,22 +21148,22 @@
         <v>29</v>
       </c>
       <c r="H502" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I502" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J502" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="K502" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="J502" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="K502" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="L502" s="11" t="s">
         <v>110</v>
       </c>
       <c r="M502" s="12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N502" s="10"/>
       <c r="O502" s="11"/>
@@ -21156,7 +21204,7 @@
         <v>132</v>
       </c>
       <c r="K504" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L504" s="7" t="s">
         <v>173</v>
@@ -21179,7 +21227,7 @@
     </row>
     <row r="505" spans="1:19">
       <c r="A505" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B505" s="18" t="s">
         <v>10</v>
@@ -21200,28 +21248,28 @@
         <v>29</v>
       </c>
       <c r="H505" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I505" s="9" t="s">
         <v>179</v>
       </c>
       <c r="J505" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K505" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L505" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M505" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N505" s="11" t="s">
         <v>184</v>
       </c>
       <c r="O505" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P505" s="11" t="s">
         <v>110</v>
@@ -21262,13 +21310,13 @@
         <v>132</v>
       </c>
       <c r="K507" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L507" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M507" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N507" s="7" t="s">
         <v>173</v>
@@ -21291,7 +21339,7 @@
     </row>
     <row r="508" spans="1:19">
       <c r="A508" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B508" s="18" t="s">
         <v>10</v>
@@ -21312,40 +21360,40 @@
         <v>29</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I508" s="9" t="s">
         <v>179</v>
       </c>
       <c r="J508" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K508" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="K508" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="L508" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M508" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N508" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O508" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P508" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q508" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="R508" s="11" t="s">
         <v>110</v>
       </c>
       <c r="S508" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="509" spans="1:19">
@@ -21398,7 +21446,7 @@
         <v>170</v>
       </c>
       <c r="J510" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K510" s="1" t="s">
         <v>171</v>
@@ -21428,7 +21476,7 @@
     </row>
     <row r="511" spans="1:19">
       <c r="A511" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>10</v>
@@ -21455,28 +21503,28 @@
         <v>179</v>
       </c>
       <c r="J511" s="11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K511" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L511" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M511" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N511" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O511" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P511" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q511" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R511" s="11" t="s">
         <v>110</v>
@@ -21533,7 +21581,7 @@
         <v>170</v>
       </c>
       <c r="J513" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K513" s="1" t="s">
         <v>171</v>
@@ -21542,7 +21590,7 @@
         <v>103</v>
       </c>
       <c r="M513" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N513" s="7" t="s">
         <v>173</v>
@@ -21563,7 +21611,7 @@
     </row>
     <row r="514" spans="1:19">
       <c r="A514" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B514" s="18" t="s">
         <v>10</v>
@@ -21590,28 +21638,28 @@
         <v>179</v>
       </c>
       <c r="J514" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K514" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L514" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M514" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N514" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O514" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P514" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q514" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R514" s="11" t="s">
         <v>110</v>
@@ -21668,7 +21716,7 @@
         <v>170</v>
       </c>
       <c r="J516" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K516" s="1" t="s">
         <v>171</v>
@@ -21677,7 +21725,7 @@
         <v>103</v>
       </c>
       <c r="M516" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N516" s="7" t="s">
         <v>173</v>
@@ -21698,7 +21746,7 @@
     </row>
     <row r="517" spans="1:19">
       <c r="A517" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B517" s="18" t="s">
         <v>10</v>
@@ -21725,28 +21773,28 @@
         <v>179</v>
       </c>
       <c r="J517" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K517" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L517" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M517" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N517" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O517" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P517" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q517" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R517" s="11" t="s">
         <v>110</v>
@@ -21803,7 +21851,7 @@
         <v>170</v>
       </c>
       <c r="J519" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K519" s="1" t="s">
         <v>171</v>
@@ -21812,7 +21860,7 @@
         <v>103</v>
       </c>
       <c r="M519" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N519" s="7" t="s">
         <v>173</v>
@@ -21833,7 +21881,7 @@
     </row>
     <row r="520" spans="1:19">
       <c r="A520" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B520" s="18" t="s">
         <v>10</v>
@@ -21860,28 +21908,28 @@
         <v>179</v>
       </c>
       <c r="J520" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K520" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L520" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M520" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N520" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O520" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P520" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q520" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R520" s="11" t="s">
         <v>110</v>
@@ -21938,7 +21986,7 @@
         <v>170</v>
       </c>
       <c r="J522" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K522" s="1" t="s">
         <v>171</v>
@@ -21947,7 +21995,7 @@
         <v>103</v>
       </c>
       <c r="M522" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N522" s="7" t="s">
         <v>173</v>
@@ -21968,7 +22016,7 @@
     </row>
     <row r="523" spans="1:19">
       <c r="A523" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B523" s="18" t="s">
         <v>10</v>
@@ -21998,32 +22046,31 @@
         <v>128</v>
       </c>
       <c r="K523" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L523" s="1" t="s">
         <v>108</v>
       </c>
       <c r="M523" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N523" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O523" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P523" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q523" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R523" s="11" t="s">
         <v>110</v>
       </c>
       <c r="S523" s="1"/>
     </row>
-    <row r="524" customFormat="1"/>
     <row r="525" spans="1:19">
       <c r="A525" s="9" t="s">
         <v>0</v>
@@ -22053,7 +22100,7 @@
         <v>170</v>
       </c>
       <c r="J525" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K525" s="1" t="s">
         <v>171</v>
@@ -22081,7 +22128,7 @@
     </row>
     <row r="526" spans="1:19">
       <c r="A526" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>10</v>
@@ -22108,10 +22155,10 @@
         <v>179</v>
       </c>
       <c r="J526" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K526" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L526" s="1" t="s">
         <v>181</v>
@@ -22120,13 +22167,13 @@
         <v>182</v>
       </c>
       <c r="N526" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O526" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P526" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q526" s="11" t="s">
         <v>110</v>
@@ -22184,7 +22231,7 @@
         <v>170</v>
       </c>
       <c r="J528" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K528" s="1" t="s">
         <v>171</v>
@@ -22212,7 +22259,7 @@
     </row>
     <row r="529" spans="1:19">
       <c r="A529" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>10</v>
@@ -22242,7 +22289,7 @@
         <v>86</v>
       </c>
       <c r="K529" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L529" s="1" t="s">
         <v>181</v>
@@ -22251,13 +22298,13 @@
         <v>182</v>
       </c>
       <c r="N529" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O529" s="11" t="s">
         <v>184</v>
       </c>
       <c r="P529" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q529" s="11" t="s">
         <v>110</v>
@@ -22315,7 +22362,7 @@
         <v>170</v>
       </c>
       <c r="J531" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K531" s="1" t="s">
         <v>55</v>
@@ -22345,7 +22392,7 @@
     </row>
     <row r="532" spans="1:19">
       <c r="A532" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>10</v>
@@ -22375,10 +22422,10 @@
         <v>91</v>
       </c>
       <c r="K532" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L532" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M532" s="1" t="s">
         <v>181</v>
@@ -22387,13 +22434,13 @@
         <v>182</v>
       </c>
       <c r="O532" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P532" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q532" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R532" s="11" t="s">
         <v>110</v>
@@ -22445,7 +22492,7 @@
         <v>170</v>
       </c>
       <c r="J534" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K534" s="1" t="s">
         <v>171</v>
@@ -22473,7 +22520,7 @@
     </row>
     <row r="535" spans="1:19">
       <c r="A535" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B535" s="2" t="s">
         <v>10</v>
@@ -22500,10 +22547,10 @@
         <v>179</v>
       </c>
       <c r="J535" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K535" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L535" s="1" t="s">
         <v>181</v>
@@ -22512,19 +22559,1653 @@
         <v>182</v>
       </c>
       <c r="N535" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O535" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="P535" s="8" t="s">
-        <v>242</v>
+      <c r="P535" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="Q535" s="11" t="s">
         <v>110</v>
       </c>
       <c r="R535" s="1"/>
       <c r="S535" s="1"/>
+    </row>
+    <row r="537" spans="1:19">
+      <c r="A537" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F537" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G537" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H537" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I537" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="J537" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K537" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L537" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M537" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N537" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O537" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="P537" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q537" s="1"/>
+      <c r="R537" s="1"/>
+      <c r="S537" s="1"/>
+    </row>
+    <row r="538" spans="1:19">
+      <c r="A538" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D538" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E538" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F538" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G538" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H538" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I538" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="J538" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K538" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L538" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="M538" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="N538" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="O538" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="P538" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q538" s="1"/>
+      <c r="R538" s="1"/>
+      <c r="S538" s="1"/>
+    </row>
+    <row r="540" spans="1:19">
+      <c r="A540" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F540" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G540" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H540" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I540" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="J540" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K540" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L540" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M540" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N540" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O540" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="P540" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q540" s="1"/>
+      <c r="R540" s="1"/>
+      <c r="S540" s="1"/>
+    </row>
+    <row r="541" spans="1:19">
+      <c r="A541" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D541" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E541" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F541" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G541" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H541" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I541" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="J541" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K541" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L541" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="M541" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="N541" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="O541" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P541" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q541" s="1"/>
+      <c r="R541" s="1"/>
+      <c r="S541" s="1"/>
+    </row>
+    <row r="543" spans="1:19">
+      <c r="A543" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E543" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F543" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G543" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H543" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I543" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J543" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K543" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L543" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M543" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N543" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O543" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P543" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q543" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R543" s="1"/>
+      <c r="S543" s="1"/>
+    </row>
+    <row r="544" spans="1:19">
+      <c r="A544" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D544" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E544" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F544" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G544" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H544" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I544" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="J544" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K544" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L544" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M544" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="N544" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="O544" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="P544" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q544" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R544" s="1"/>
+      <c r="S544" s="1"/>
+    </row>
+    <row r="546" spans="1:19">
+      <c r="A546" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E546" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F546" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G546" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H546" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I546" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J546" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K546" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L546" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M546" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N546" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O546" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P546" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q546" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R546" s="1"/>
+      <c r="S546" s="1"/>
+    </row>
+    <row r="547" spans="1:19">
+      <c r="A547" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D547" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E547" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F547" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G547" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H547" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I547" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="J547" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K547" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L547" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M547" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="N547" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="O547" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="P547" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q547" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R547" s="1"/>
+      <c r="S547" s="1"/>
+    </row>
+    <row r="549" spans="1:19">
+      <c r="A549" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F549" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G549" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H549" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I549" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J549" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K549" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L549" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M549" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N549" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O549" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P549" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q549" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R549" s="1"/>
+      <c r="S549" s="1"/>
+    </row>
+    <row r="550" spans="1:19">
+      <c r="A550" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D550" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E550" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F550" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G550" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H550" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I550" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J550" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K550" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="L550" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M550" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="N550" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="O550" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="P550" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q550" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R550" s="1"/>
+      <c r="S550" s="1"/>
+    </row>
+    <row r="552" spans="1:19">
+      <c r="A552" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F552" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G552" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I552" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J552" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K552" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L552" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M552" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N552" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O552" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P552" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q552" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R552" s="1"/>
+      <c r="S552" s="1"/>
+    </row>
+    <row r="553" spans="1:19">
+      <c r="A553" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D553" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E553" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F553" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G553" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H553" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I553" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J553" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K553" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="L553" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M553" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="N553" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="O553" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="P553" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q553" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R553" s="1"/>
+      <c r="S553" s="1"/>
+    </row>
+    <row r="555" spans="1:19">
+      <c r="A555" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F555" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G555" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I555" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J555" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K555" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L555" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M555" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="N555" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O555" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P555" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q555" s="1"/>
+      <c r="R555" s="1"/>
+      <c r="S555" s="1"/>
+    </row>
+    <row r="556" spans="1:19">
+      <c r="A556" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B556" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D556" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E556" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F556" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G556" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I556" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="J556" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K556" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L556" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M556" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="N556" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="O556" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P556" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q556" s="1"/>
+      <c r="R556" s="1"/>
+      <c r="S556" s="1"/>
+    </row>
+    <row r="558" spans="1:19">
+      <c r="A558" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F558" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G558" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I558" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J558" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K558" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L558" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M558" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="N558" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O558" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P558" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q558" s="1"/>
+      <c r="R558" s="1"/>
+      <c r="S558" s="1"/>
+    </row>
+    <row r="559" spans="1:19">
+      <c r="A559" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B559" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D559" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E559" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F559" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G559" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H559" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I559" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="J559" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K559" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L559" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M559" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="N559" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="O559" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P559" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q559" s="1"/>
+      <c r="R559" s="1"/>
+      <c r="S559" s="1"/>
+    </row>
+    <row r="561" spans="1:19">
+      <c r="A561" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F561" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G561" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H561" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I561" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J561" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K561" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L561" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M561" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N561" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O561" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P561" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q561" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R561" s="1"/>
+      <c r="S561" s="1"/>
+    </row>
+    <row r="562" spans="1:19">
+      <c r="A562" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E562" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F562" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G562" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H562" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I562" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="J562" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K562" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="L562" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M562" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="N562" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="O562" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="P562" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q562" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R562" s="1"/>
+      <c r="S562" s="1"/>
+    </row>
+    <row r="564" spans="1:19">
+      <c r="A564" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F564" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G564" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H564" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I564" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J564" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K564" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L564" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M564" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N564" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O564" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P564" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q564" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R564" s="1"/>
+      <c r="S564" s="1"/>
+    </row>
+    <row r="565" spans="1:19">
+      <c r="A565" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D565" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E565" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F565" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G565" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H565" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I565" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="J565" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K565" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="L565" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M565" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="N565" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="O565" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="P565" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q565" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R565" s="1"/>
+      <c r="S565" s="1"/>
+    </row>
+    <row r="567" spans="1:20">
+      <c r="A567" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F567" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G567" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H567" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I567" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J567" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K567" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L567" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M567" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N567" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O567" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P567" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q567" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R567" s="1"/>
+      <c r="S567" s="1"/>
+      <c r="T567" s="19"/>
+    </row>
+    <row r="568" spans="1:20">
+      <c r="A568" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D568" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E568" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F568" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G568" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H568" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I568" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J568" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K568" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="L568" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M568" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="N568" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="O568" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="P568" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q568" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R568" s="1"/>
+      <c r="S568" s="1"/>
+      <c r="T568" s="19"/>
+    </row>
+    <row r="570" spans="1:20">
+      <c r="A570" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F570" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G570" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H570" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I570" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J570" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K570" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L570" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M570" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N570" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O570" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P570" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q570" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R570" s="1"/>
+      <c r="S570" s="1"/>
+      <c r="T570" s="19"/>
+    </row>
+    <row r="571" spans="1:20">
+      <c r="A571" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D571" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E571" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F571" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G571" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H571" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I571" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J571" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K571" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="L571" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M571" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="N571" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="O571" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="P571" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q571" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R571" s="1"/>
+      <c r="S571" s="1"/>
+      <c r="T571" s="19"/>
+    </row>
+    <row r="573" spans="1:19">
+      <c r="A573" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F573" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G573" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H573" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I573" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J573" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K573" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L573" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M573" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N573" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O573" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P573" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q573" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R573" s="1"/>
+      <c r="S573" s="1"/>
+    </row>
+    <row r="574" spans="1:19">
+      <c r="A574" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B574" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D574" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E574" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F574" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G574" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H574" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I574" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J574" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K574" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="L574" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M574" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="N574" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="O574" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="P574" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q574" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R574" s="1"/>
+      <c r="S574" s="1"/>
+    </row>
+    <row r="576" spans="1:19">
+      <c r="A576" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F576" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G576" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H576" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I576" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J576" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K576" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L576" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M576" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N576" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O576" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P576" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R576" s="1"/>
+      <c r="S576" s="1"/>
+    </row>
+    <row r="577" spans="1:19">
+      <c r="A577" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B577" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D577" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E577" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F577" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G577" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H577" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I577" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J577" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K577" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="L577" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M577" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="N577" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="O577" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="P577" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q577" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R577" s="1"/>
+      <c r="S577" s="1"/>
+    </row>
+    <row r="579" spans="1:19">
+      <c r="A579" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F579" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G579" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H579" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I579" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="J579" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K579" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L579" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M579" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N579" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O579" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="P579" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q579" s="1"/>
+      <c r="R579" s="1"/>
+      <c r="S579" s="1"/>
+    </row>
+    <row r="580" spans="1:19">
+      <c r="A580" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D580" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E580" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F580" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G580" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H580" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I580" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="J580" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K580" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L580" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="M580" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="N580" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="O580" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="P580" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q580" s="1"/>
+      <c r="R580" s="1"/>
+      <c r="S580" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -22711,6 +24392,21 @@
     <hyperlink ref="G517" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
     <hyperlink ref="G520" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
     <hyperlink ref="G523" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G538" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G541" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G544" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G547" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G550" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G553" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G556" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G559" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G562" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G565" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G568" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G571" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G574" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G577" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G580" r:id="rId1" display="Brac@2025" tooltip="mailto:Brac@2020"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
